--- a/0_0_Data/2_Processed_Data/1_GDP_series/qoq_combined_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_GDP_series/qoq_combined_GDP_data.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ER222"/>
+  <dimension ref="A1:ES223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:148">
+    <row r="1" spans="1:149">
       <c r="B1" s="1">
         <v>32508</v>
       </c>
@@ -817,13 +817,16 @@
       <c r="ER1" s="1">
         <v>45800</v>
       </c>
+      <c r="ES1" s="1">
+        <v>45891</v>
+      </c>
     </row>
-    <row r="2" spans="1:148">
+    <row r="2" spans="1:149">
       <c r="A2" s="1">
         <v>25569</v>
       </c>
     </row>
-    <row r="3" spans="1:148">
+    <row r="3" spans="1:149">
       <c r="A3" s="1">
         <v>25659</v>
       </c>
@@ -1268,8 +1271,11 @@
       <c r="ER3">
         <v>3.949077682514929</v>
       </c>
+      <c r="ES3">
+        <v>3.949077682514924</v>
+      </c>
     </row>
-    <row r="4" spans="1:148">
+    <row r="4" spans="1:149">
       <c r="A4" s="1">
         <v>25750</v>
       </c>
@@ -1714,8 +1720,11 @@
       <c r="ER4">
         <v>1.87453136715821</v>
       </c>
+      <c r="ES4">
+        <v>1.874531367158206</v>
+      </c>
     </row>
-    <row r="5" spans="1:148">
+    <row r="5" spans="1:149">
       <c r="A5" s="1">
         <v>25842</v>
       </c>
@@ -2160,8 +2169,11 @@
       <c r="ER5">
         <v>0.8586849852796894</v>
       </c>
+      <c r="ES5">
+        <v>0.8586849852796945</v>
+      </c>
     </row>
-    <row r="6" spans="1:148">
+    <row r="6" spans="1:149">
       <c r="A6" s="1">
         <v>25934</v>
       </c>
@@ -2606,8 +2618,11 @@
       <c r="ER6">
         <v>-1.945998540501088</v>
       </c>
+      <c r="ES6">
+        <v>-1.945998540501086</v>
+      </c>
     </row>
-    <row r="7" spans="1:148">
+    <row r="7" spans="1:149">
       <c r="A7" s="1">
         <v>26024</v>
       </c>
@@ -3052,8 +3067,11 @@
       <c r="ER7">
         <v>2.133465641280078</v>
       </c>
+      <c r="ES7">
+        <v>2.133465641280074</v>
+      </c>
     </row>
-    <row r="8" spans="1:148">
+    <row r="8" spans="1:149">
       <c r="A8" s="1">
         <v>26115</v>
       </c>
@@ -3498,8 +3516,11 @@
       <c r="ER8">
         <v>1.700267184843322</v>
       </c>
+      <c r="ES8">
+        <v>1.700267184843332</v>
+      </c>
     </row>
-    <row r="9" spans="1:148">
+    <row r="9" spans="1:149">
       <c r="A9" s="1">
         <v>26207</v>
       </c>
@@ -3944,8 +3965,11 @@
       <c r="ER9">
         <v>-0.09553379508000752</v>
       </c>
+      <c r="ES9">
+        <v>-0.09553379508001679</v>
+      </c>
     </row>
-    <row r="10" spans="1:148">
+    <row r="10" spans="1:149">
       <c r="A10" s="1">
         <v>26299</v>
       </c>
@@ -4390,8 +4414,11 @@
       <c r="ER10">
         <v>0.09562514941429393</v>
       </c>
+      <c r="ES10">
+        <v>0.0956251494143032</v>
+      </c>
     </row>
-    <row r="11" spans="1:148">
+    <row r="11" spans="1:149">
       <c r="A11" s="1">
         <v>26390</v>
       </c>
@@ -4836,8 +4863,11 @@
       <c r="ER11">
         <v>1.647957965130176</v>
       </c>
+      <c r="ES11">
+        <v>1.647957965130175</v>
+      </c>
     </row>
-    <row r="12" spans="1:148">
+    <row r="12" spans="1:149">
       <c r="A12" s="1">
         <v>26481</v>
       </c>
@@ -5282,8 +5312,11 @@
       <c r="ER12">
         <v>2.32612781954886</v>
       </c>
+      <c r="ES12">
+        <v>2.32612781954886</v>
+      </c>
     </row>
-    <row r="13" spans="1:148">
+    <row r="13" spans="1:149">
       <c r="A13" s="1">
         <v>26573</v>
       </c>
@@ -5728,8 +5761,11 @@
       <c r="ER13">
         <v>1.538461538461543</v>
       </c>
+      <c r="ES13">
+        <v>1.538461538461537</v>
+      </c>
     </row>
-    <row r="14" spans="1:148">
+    <row r="14" spans="1:149">
       <c r="A14" s="1">
         <v>26665</v>
       </c>
@@ -6174,8 +6210,11 @@
       <c r="ER14">
         <v>1.447308909995479</v>
       </c>
+      <c r="ES14">
+        <v>1.447308909995474</v>
+      </c>
     </row>
-    <row r="15" spans="1:148">
+    <row r="15" spans="1:149">
       <c r="A15" s="1">
         <v>26755</v>
       </c>
@@ -6620,8 +6659,11 @@
       <c r="ER15">
         <v>0.6910387873383912</v>
       </c>
+      <c r="ES15">
+        <v>0.6910387873384027</v>
+      </c>
     </row>
-    <row r="16" spans="1:148">
+    <row r="16" spans="1:149">
       <c r="A16" s="1">
         <v>26846</v>
       </c>
@@ -7066,8 +7108,11 @@
       <c r="ER16">
         <v>0.3542174009298131</v>
       </c>
+      <c r="ES16">
+        <v>0.3542174009298003</v>
+      </c>
     </row>
-    <row r="17" spans="1:148">
+    <row r="17" spans="1:149">
       <c r="A17" s="1">
         <v>26938</v>
       </c>
@@ -7512,8 +7557,11 @@
       <c r="ER17">
         <v>0.2206044562100186</v>
       </c>
+      <c r="ES17">
+        <v>0.2206044562100243</v>
+      </c>
     </row>
-    <row r="18" spans="1:148">
+    <row r="18" spans="1:149">
       <c r="A18" s="1">
         <v>27030</v>
       </c>
@@ -7958,8 +8006,11 @@
       <c r="ER18">
         <v>0.8364516839093167</v>
       </c>
+      <c r="ES18">
+        <v>0.8364516839093197</v>
+      </c>
     </row>
-    <row r="19" spans="1:148">
+    <row r="19" spans="1:149">
       <c r="A19" s="1">
         <v>27120</v>
       </c>
@@ -8404,8 +8455,11 @@
       <c r="ER19">
         <v>-0.08731717965509528</v>
       </c>
+      <c r="ES19">
+        <v>-0.08731717965510374</v>
+      </c>
     </row>
-    <row r="20" spans="1:148">
+    <row r="20" spans="1:149">
       <c r="A20" s="1">
         <v>27211</v>
       </c>
@@ -8850,8 +8904,11 @@
       <c r="ER20">
         <v>0.02184837229625958</v>
       </c>
+      <c r="ES20">
+        <v>0.02184837229626946</v>
+      </c>
     </row>
-    <row r="21" spans="1:148">
+    <row r="21" spans="1:149">
       <c r="A21" s="1">
         <v>27303</v>
       </c>
@@ -9296,8 +9353,11 @@
       <c r="ER21">
         <v>-1.245085190039319</v>
       </c>
+      <c r="ES21">
+        <v>-1.245085190039323</v>
+      </c>
     </row>
-    <row r="22" spans="1:148">
+    <row r="22" spans="1:149">
       <c r="A22" s="1">
         <v>27395</v>
       </c>
@@ -9742,8 +9802,11 @@
       <c r="ER22">
         <v>-0.5750940057509356</v>
       </c>
+      <c r="ES22">
+        <v>-0.5750940057509286</v>
+      </c>
     </row>
-    <row r="23" spans="1:148">
+    <row r="23" spans="1:149">
       <c r="A23" s="1">
         <v>27485</v>
       </c>
@@ -10188,8 +10251,11 @@
       <c r="ER23">
         <v>-0.5116796440489521</v>
       </c>
+      <c r="ES23">
+        <v>-0.5116796440489622</v>
+      </c>
     </row>
-    <row r="24" spans="1:148">
+    <row r="24" spans="1:149">
       <c r="A24" s="1">
         <v>27576</v>
       </c>
@@ -10634,8 +10700,11 @@
       <c r="ER24">
         <v>1.095706618962437</v>
       </c>
+      <c r="ES24">
+        <v>1.09570661896244</v>
+      </c>
     </row>
-    <row r="25" spans="1:148">
+    <row r="25" spans="1:149">
       <c r="A25" s="1">
         <v>27668</v>
       </c>
@@ -11080,8 +11149,11 @@
       <c r="ER25">
         <v>1.968591019685911</v>
       </c>
+      <c r="ES25">
+        <v>1.968591019685906</v>
+      </c>
     </row>
-    <row r="26" spans="1:148">
+    <row r="26" spans="1:149">
       <c r="A26" s="1">
         <v>27760</v>
       </c>
@@ -11526,8 +11598,11 @@
       <c r="ER26">
         <v>0.8676789587852464</v>
       </c>
+      <c r="ES26">
+        <v>0.8676789587852535</v>
+      </c>
     </row>
-    <row r="27" spans="1:148">
+    <row r="27" spans="1:149">
       <c r="A27" s="1">
         <v>27851</v>
       </c>
@@ -11972,8 +12047,11 @@
       <c r="ER27">
         <v>1.505376344086028</v>
       </c>
+      <c r="ES27">
+        <v>1.505376344086021</v>
+      </c>
     </row>
-    <row r="28" spans="1:148">
+    <row r="28" spans="1:149">
       <c r="A28" s="1">
         <v>27942</v>
       </c>
@@ -12418,8 +12496,11 @@
       <c r="ER28">
         <v>0.02118644067796189</v>
       </c>
+      <c r="ES28">
+        <v>0.02118644067797147</v>
+      </c>
     </row>
-    <row r="29" spans="1:148">
+    <row r="29" spans="1:149">
       <c r="A29" s="1">
         <v>28034</v>
       </c>
@@ -12864,8 +12945,11 @@
       <c r="ER29">
         <v>1.864011861893672</v>
       </c>
+      <c r="ES29">
+        <v>1.864011861893672</v>
+      </c>
     </row>
-    <row r="30" spans="1:148">
+    <row r="30" spans="1:149">
       <c r="A30" s="1">
         <v>28126</v>
       </c>
@@ -13310,8 +13394,11 @@
       <c r="ER30">
         <v>0.8733624454148359</v>
       </c>
+      <c r="ES30">
+        <v>0.873362445414832</v>
+      </c>
     </row>
-    <row r="31" spans="1:148">
+    <row r="31" spans="1:149">
       <c r="A31" s="1">
         <v>28216</v>
       </c>
@@ -13756,8 +13843,11 @@
       <c r="ER31">
         <v>0.5565862708719916</v>
       </c>
+      <c r="ES31">
+        <v>0.5565862708719943</v>
+      </c>
     </row>
-    <row r="32" spans="1:148">
+    <row r="32" spans="1:149">
       <c r="A32" s="1">
         <v>28307</v>
       </c>
@@ -14202,8 +14292,11 @@
       <c r="ER32">
         <v>-0.04100041000410645</v>
       </c>
+      <c r="ES32">
+        <v>-0.04100041000411042</v>
+      </c>
     </row>
-    <row r="33" spans="1:148">
+    <row r="33" spans="1:149">
       <c r="A33" s="1">
         <v>28399</v>
       </c>
@@ -14648,8 +14741,11 @@
       <c r="ER33">
         <v>1.72272354388844</v>
       </c>
+      <c r="ES33">
+        <v>1.722723543888447</v>
+      </c>
     </row>
-    <row r="34" spans="1:148">
+    <row r="34" spans="1:149">
       <c r="A34" s="1">
         <v>28491</v>
       </c>
@@ -15094,8 +15190,11 @@
       <c r="ER34">
         <v>0.4032258064516043</v>
       </c>
+      <c r="ES34">
+        <v>0.4032258064516004</v>
+      </c>
     </row>
-    <row r="35" spans="1:148">
+    <row r="35" spans="1:149">
       <c r="A35" s="1">
         <v>28581</v>
       </c>
@@ -15540,8 +15639,11 @@
       <c r="ER35">
         <v>0.4216867469879536</v>
       </c>
+      <c r="ES35">
+        <v>0.4216867469879588</v>
+      </c>
     </row>
-    <row r="36" spans="1:148">
+    <row r="36" spans="1:149">
       <c r="A36" s="1">
         <v>28672</v>
       </c>
@@ -15986,8 +16088,11 @@
       <c r="ER36">
         <v>1.299740051989599</v>
       </c>
+      <c r="ES36">
+        <v>1.29974005198959</v>
+      </c>
     </row>
-    <row r="37" spans="1:148">
+    <row r="37" spans="1:149">
       <c r="A37" s="1">
         <v>28764</v>
       </c>
@@ -16432,8 +16537,11 @@
       <c r="ER37">
         <v>1.164626924595348</v>
       </c>
+      <c r="ES37">
+        <v>1.164626924595356</v>
+      </c>
     </row>
-    <row r="38" spans="1:148">
+    <row r="38" spans="1:149">
       <c r="A38" s="1">
         <v>28856</v>
       </c>
@@ -16878,8 +16986,11 @@
       <c r="ER38">
         <v>0.1365853658536591</v>
       </c>
+      <c r="ES38">
+        <v>0.1365853658536516</v>
+      </c>
     </row>
-    <row r="39" spans="1:148">
+    <row r="39" spans="1:149">
       <c r="A39" s="1">
         <v>28946</v>
       </c>
@@ -17324,8 +17435,11 @@
       <c r="ER39">
         <v>3.098207326578325</v>
       </c>
+      <c r="ES39">
+        <v>3.098207326578328</v>
+      </c>
     </row>
-    <row r="40" spans="1:148">
+    <row r="40" spans="1:149">
       <c r="A40" s="1">
         <v>29037</v>
       </c>
@@ -17770,8 +17884,11 @@
       <c r="ER40">
         <v>0</v>
       </c>
+      <c r="ES40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:148">
+    <row r="41" spans="1:149">
       <c r="A41" s="1">
         <v>29129</v>
       </c>
@@ -18216,8 +18333,11 @@
       <c r="ER41">
         <v>0.6237006237006339</v>
       </c>
+      <c r="ES41">
+        <v>0.6237006237006341</v>
+      </c>
     </row>
-    <row r="42" spans="1:148">
+    <row r="42" spans="1:149">
       <c r="A42" s="1">
         <v>29221</v>
       </c>
@@ -18662,8 +18782,11 @@
       <c r="ER42">
         <v>0.7888805409466465</v>
       </c>
+      <c r="ES42">
+        <v>0.7888805409466429</v>
+      </c>
     </row>
-    <row r="43" spans="1:148">
+    <row r="43" spans="1:149">
       <c r="A43" s="1">
         <v>29312</v>
       </c>
@@ -19108,8 +19231,11 @@
       <c r="ER43">
         <v>-0.6522549385016667</v>
       </c>
+      <c r="ES43">
+        <v>-0.6522549385016704</v>
+      </c>
     </row>
-    <row r="44" spans="1:148">
+    <row r="44" spans="1:149">
       <c r="A44" s="1">
         <v>29403</v>
       </c>
@@ -19554,8 +19680,11 @@
       <c r="ER44">
         <v>-0.4126805477396339</v>
       </c>
+      <c r="ES44">
+        <v>-0.412680547739634</v>
+      </c>
     </row>
-    <row r="45" spans="1:148">
+    <row r="45" spans="1:149">
       <c r="A45" s="1">
         <v>29495</v>
       </c>
@@ -20000,8 +20129,11 @@
       <c r="ER45">
         <v>-0.1318515728009046</v>
       </c>
+      <c r="ES45">
+        <v>-0.1318515728008974</v>
+      </c>
     </row>
-    <row r="46" spans="1:148">
+    <row r="46" spans="1:149">
       <c r="A46" s="1">
         <v>29587</v>
       </c>
@@ -20446,8 +20578,11 @@
       <c r="ER46">
         <v>1.207091663523187</v>
       </c>
+      <c r="ES46">
+        <v>1.207091663523183</v>
+      </c>
     </row>
-    <row r="47" spans="1:148">
+    <row r="47" spans="1:149">
       <c r="A47" s="1">
         <v>29677</v>
       </c>
@@ -20892,8 +21027,11 @@
       <c r="ER47">
         <v>-0.2609019754006587</v>
       </c>
+      <c r="ES47">
+        <v>-0.2609019754006576</v>
+      </c>
     </row>
-    <row r="48" spans="1:148">
+    <row r="48" spans="1:149">
       <c r="A48" s="1">
         <v>29768</v>
       </c>
@@ -21338,8 +21476,11 @@
       <c r="ER48">
         <v>0.2802690582959615</v>
       </c>
+      <c r="ES48">
+        <v>0.2802690582959688</v>
+      </c>
     </row>
-    <row r="49" spans="1:148">
+    <row r="49" spans="1:149">
       <c r="A49" s="1">
         <v>29860</v>
       </c>
@@ -21784,8 +21925,11 @@
       <c r="ER49">
         <v>-0.1117942984907812</v>
       </c>
+      <c r="ES49">
+        <v>-0.111794298490792</v>
+      </c>
     </row>
-    <row r="50" spans="1:148">
+    <row r="50" spans="1:149">
       <c r="A50" s="1">
         <v>29952</v>
       </c>
@@ -22230,8 +22374,11 @@
       <c r="ER50">
         <v>0.4103711994030943</v>
       </c>
+      <c r="ES50">
+        <v>0.4103711994030944</v>
+      </c>
     </row>
-    <row r="51" spans="1:148">
+    <row r="51" spans="1:149">
       <c r="A51" s="1">
         <v>30042</v>
       </c>
@@ -22676,8 +22823,11 @@
       <c r="ER51">
         <v>-0.6316180568456182</v>
       </c>
+      <c r="ES51">
+        <v>-0.6316180568456136</v>
+      </c>
     </row>
-    <row r="52" spans="1:148">
+    <row r="52" spans="1:149">
       <c r="A52" s="1">
         <v>30133</v>
       </c>
@@ -23122,8 +23272,11 @@
       <c r="ER52">
         <v>-0.9534492428491402</v>
       </c>
+      <c r="ES52">
+        <v>-0.9534492428491463</v>
+      </c>
     </row>
-    <row r="53" spans="1:148">
+    <row r="53" spans="1:149">
       <c r="A53" s="1">
         <v>30225</v>
       </c>
@@ -23568,8 +23721,11 @@
       <c r="ER53">
         <v>0.20762551906381</v>
       </c>
+      <c r="ES53">
+        <v>0.20762551906381</v>
+      </c>
     </row>
-    <row r="54" spans="1:148">
+    <row r="54" spans="1:149">
       <c r="A54" s="1">
         <v>30317</v>
       </c>
@@ -24014,8 +24170,11 @@
       <c r="ER54">
         <v>0.9229610096063191</v>
       </c>
+      <c r="ES54">
+        <v>0.9229610096063218</v>
+      </c>
     </row>
-    <row r="55" spans="1:148">
+    <row r="55" spans="1:149">
       <c r="A55" s="1">
         <v>30407</v>
       </c>
@@ -24460,8 +24619,11 @@
       <c r="ER55">
         <v>1.063829787234043</v>
       </c>
+      <c r="ES55">
+        <v>1.063829787234047</v>
+      </c>
     </row>
-    <row r="56" spans="1:148">
+    <row r="56" spans="1:149">
       <c r="A56" s="1">
         <v>30498</v>
       </c>
@@ -24906,8 +25068,11 @@
       <c r="ER56">
         <v>-0.2400738688827248</v>
       </c>
+      <c r="ES56">
+        <v>-0.2400738688827284</v>
+      </c>
     </row>
-    <row r="57" spans="1:148">
+    <row r="57" spans="1:149">
       <c r="A57" s="1">
         <v>30590</v>
       </c>
@@ -25352,8 +25517,11 @@
       <c r="ER57">
         <v>1.388374676045909</v>
       </c>
+      <c r="ES57">
+        <v>1.388374676045919</v>
+      </c>
     </row>
-    <row r="58" spans="1:148">
+    <row r="58" spans="1:149">
       <c r="A58" s="1">
         <v>30682</v>
       </c>
@@ -25798,8 +25966,11 @@
       <c r="ER58">
         <v>1.314588278254517</v>
       </c>
+      <c r="ES58">
+        <v>1.314588278254514</v>
+      </c>
     </row>
-    <row r="59" spans="1:148">
+    <row r="59" spans="1:149">
       <c r="A59" s="1">
         <v>30773</v>
       </c>
@@ -26244,8 +26415,11 @@
       <c r="ER59">
         <v>-1.567850063074436</v>
       </c>
+      <c r="ES59">
+        <v>-1.567850063074441</v>
+      </c>
     </row>
-    <row r="60" spans="1:148">
+    <row r="60" spans="1:149">
       <c r="A60" s="1">
         <v>30864</v>
       </c>
@@ -26690,8 +26864,11 @@
       <c r="ER60">
         <v>2.727938484071772</v>
       </c>
+      <c r="ES60">
+        <v>2.72793848407177</v>
+      </c>
     </row>
-    <row r="61" spans="1:148">
+    <row r="61" spans="1:149">
       <c r="A61" s="1">
         <v>30956</v>
       </c>
@@ -27136,8 +27313,11 @@
       <c r="ER61">
         <v>0.8376403493138458</v>
       </c>
+      <c r="ES61">
+        <v>0.8376403493138448</v>
+      </c>
     </row>
-    <row r="62" spans="1:148">
+    <row r="62" spans="1:149">
       <c r="A62" s="1">
         <v>31048</v>
       </c>
@@ -27582,8 +27762,11 @@
       <c r="ER62">
         <v>-0.5302226935312782</v>
       </c>
+      <c r="ES62">
+        <v>-0.5302226935312794</v>
+      </c>
     </row>
-    <row r="63" spans="1:148">
+    <row r="63" spans="1:149">
       <c r="A63" s="1">
         <v>31138</v>
       </c>
@@ -28028,8 +28211,11 @@
       <c r="ER63">
         <v>0.9772565742714946</v>
       </c>
+      <c r="ES63">
+        <v>0.9772565742714947</v>
+      </c>
     </row>
-    <row r="64" spans="1:148">
+    <row r="64" spans="1:149">
       <c r="A64" s="1">
         <v>31229</v>
       </c>
@@ -28474,8 +28660,11 @@
       <c r="ER64">
         <v>1.30212915713532</v>
       </c>
+      <c r="ES64">
+        <v>1.302129157135321</v>
+      </c>
     </row>
-    <row r="65" spans="1:148">
+    <row r="65" spans="1:149">
       <c r="A65" s="1">
         <v>31321</v>
       </c>
@@ -28920,8 +29109,11 @@
       <c r="ER65">
         <v>0.6079555323953473</v>
       </c>
+      <c r="ES65">
+        <v>0.6079555323953507</v>
+      </c>
     </row>
-    <row r="66" spans="1:148">
+    <row r="66" spans="1:149">
       <c r="A66" s="1">
         <v>31413</v>
       </c>
@@ -29366,8 +29558,11 @@
       <c r="ER66">
         <v>-0.5697513812154666</v>
       </c>
+      <c r="ES66">
+        <v>-0.5697513812154668</v>
+      </c>
     </row>
-    <row r="67" spans="1:148">
+    <row r="67" spans="1:149">
       <c r="A67" s="1">
         <v>31503</v>
       </c>
@@ -29812,8 +30007,11 @@
       <c r="ER67">
         <v>1.163396422990093</v>
       </c>
+      <c r="ES67">
+        <v>1.163396422990089</v>
+      </c>
     </row>
-    <row r="68" spans="1:148">
+    <row r="68" spans="1:149">
       <c r="A68" s="1">
         <v>31594</v>
       </c>
@@ -30258,8 +30456,11 @@
       <c r="ER68">
         <v>0.7380707174733946</v>
       </c>
+      <c r="ES68">
+        <v>0.7380707174733993</v>
+      </c>
     </row>
-    <row r="69" spans="1:148">
+    <row r="69" spans="1:149">
       <c r="A69" s="1">
         <v>31686</v>
       </c>
@@ -30704,8 +30905,11 @@
       <c r="ER69">
         <v>0.9882433123189732</v>
       </c>
+      <c r="ES69">
+        <v>0.9882433123189723</v>
+      </c>
     </row>
-    <row r="70" spans="1:148">
+    <row r="70" spans="1:149">
       <c r="A70" s="1">
         <v>31778</v>
       </c>
@@ -31150,8 +31354,11 @@
       <c r="ER70">
         <v>-2.513919352117432</v>
       </c>
+      <c r="ES70">
+        <v>-2.51391935211743</v>
+      </c>
     </row>
-    <row r="71" spans="1:148">
+    <row r="71" spans="1:149">
       <c r="A71" s="1">
         <v>31868</v>
       </c>
@@ -31596,8 +31803,11 @@
       <c r="ER71">
         <v>2.249913464866731</v>
       </c>
+      <c r="ES71">
+        <v>2.249913464866728</v>
+      </c>
     </row>
-    <row r="72" spans="1:148">
+    <row r="72" spans="1:149">
       <c r="A72" s="1">
         <v>31959</v>
       </c>
@@ -32042,8 +32252,11 @@
       <c r="ER72">
         <v>0.7109004739336522</v>
       </c>
+      <c r="ES72">
+        <v>0.710900473933649</v>
+      </c>
     </row>
-    <row r="73" spans="1:148">
+    <row r="73" spans="1:149">
       <c r="A73" s="1">
         <v>32051</v>
       </c>
@@ -32488,8 +32701,11 @@
       <c r="ER73">
         <v>1.579831932773106</v>
       </c>
+      <c r="ES73">
+        <v>1.579831932773116</v>
+      </c>
     </row>
-    <row r="74" spans="1:148">
+    <row r="74" spans="1:149">
       <c r="A74" s="1">
         <v>32143</v>
       </c>
@@ -32934,8 +33150,11 @@
       <c r="ER74">
         <v>-0.8934480476505611</v>
       </c>
+      <c r="ES74">
+        <v>-0.8934480476505656</v>
+      </c>
     </row>
-    <row r="75" spans="1:148">
+    <row r="75" spans="1:149">
       <c r="A75" s="1">
         <v>32234</v>
       </c>
@@ -33380,8 +33599,11 @@
       <c r="ER75">
         <v>1.819699499165281</v>
       </c>
+      <c r="ES75">
+        <v>1.819699499165286</v>
+      </c>
     </row>
-    <row r="76" spans="1:148">
+    <row r="76" spans="1:149">
       <c r="A76" s="1">
         <v>32325</v>
       </c>
@@ -33826,8 +34048,11 @@
       <c r="ER76">
         <v>1.098540744384316</v>
       </c>
+      <c r="ES76">
+        <v>1.098540744384312</v>
+      </c>
     </row>
-    <row r="77" spans="1:148">
+    <row r="77" spans="1:149">
       <c r="A77" s="1">
         <v>32417</v>
       </c>
@@ -34269,8 +34494,11 @@
       <c r="ER77">
         <v>1.200129743756085</v>
       </c>
+      <c r="ES77">
+        <v>1.200129743756086</v>
+      </c>
     </row>
-    <row r="78" spans="1:148">
+    <row r="78" spans="1:149">
       <c r="A78" s="1">
         <v>32509</v>
       </c>
@@ -34709,8 +34937,11 @@
       <c r="ER78">
         <v>1.025641025641026</v>
       </c>
+      <c r="ES78">
+        <v>1.025641025641024</v>
+      </c>
     </row>
-    <row r="79" spans="1:148">
+    <row r="79" spans="1:149">
       <c r="A79" s="1">
         <v>32599</v>
       </c>
@@ -35146,8 +35377,11 @@
       <c r="ER79">
         <v>0.4124365482233471</v>
       </c>
+      <c r="ES79">
+        <v>0.4124365482233533</v>
+      </c>
     </row>
-    <row r="80" spans="1:148">
+    <row r="80" spans="1:149">
       <c r="A80" s="1">
         <v>32690</v>
       </c>
@@ -35580,8 +35814,11 @@
       <c r="ER80">
         <v>0.9004739336492895</v>
       </c>
+      <c r="ES80">
+        <v>0.9004739336492815</v>
+      </c>
     </row>
-    <row r="81" spans="1:148">
+    <row r="81" spans="1:149">
       <c r="A81" s="1">
         <v>32782</v>
       </c>
@@ -36011,8 +36248,11 @@
       <c r="ER81">
         <v>1.174260216063891</v>
       </c>
+      <c r="ES81">
+        <v>1.174260216063888</v>
+      </c>
     </row>
-    <row r="82" spans="1:148">
+    <row r="82" spans="1:149">
       <c r="A82" s="1">
         <v>32874</v>
       </c>
@@ -36439,8 +36679,11 @@
       <c r="ER82">
         <v>2.073661405137711</v>
       </c>
+      <c r="ES82">
+        <v>2.073661405137726</v>
+      </c>
     </row>
-    <row r="83" spans="1:148">
+    <row r="83" spans="1:149">
       <c r="A83" s="1">
         <v>32964</v>
       </c>
@@ -36864,8 +37107,11 @@
       <c r="ER83">
         <v>0.4851425106125037</v>
       </c>
+      <c r="ES83">
+        <v>0.4851425106124861</v>
+      </c>
     </row>
-    <row r="84" spans="1:148">
+    <row r="84" spans="1:149">
       <c r="A84" s="1">
         <v>33055</v>
       </c>
@@ -37286,8 +37532,11 @@
       <c r="ER84">
         <v>2.112251056125537</v>
       </c>
+      <c r="ES84">
+        <v>2.112251056125549</v>
+      </c>
     </row>
-    <row r="85" spans="1:148">
+    <row r="85" spans="1:149">
       <c r="A85" s="1">
         <v>33147</v>
       </c>
@@ -37705,8 +37954,11 @@
       <c r="ER85">
         <v>1.773049645390054</v>
       </c>
+      <c r="ES85">
+        <v>1.773049645390058</v>
+      </c>
     </row>
-    <row r="86" spans="1:148">
+    <row r="86" spans="1:149">
       <c r="A86" s="1">
         <v>33239</v>
       </c>
@@ -38121,8 +38373,11 @@
       <c r="ER86">
         <v>2.758420441347279</v>
       </c>
+      <c r="ES86">
+        <v>2.758420441347268</v>
+      </c>
     </row>
-    <row r="87" spans="1:148">
+    <row r="87" spans="1:149">
       <c r="A87" s="1">
         <v>33329</v>
       </c>
@@ -38534,8 +38789,11 @@
       <c r="ER87">
         <v>-0.4379768296128882</v>
       </c>
+      <c r="ES87">
+        <v>-0.4801581697500401</v>
+      </c>
     </row>
-    <row r="88" spans="1:148">
+    <row r="88" spans="1:149">
       <c r="A88" s="1">
         <v>33420</v>
       </c>
@@ -38944,8 +39202,11 @@
       <c r="ER88">
         <v>-0.18447566340286</v>
       </c>
+      <c r="ES88">
+        <v>-0.156094792110117</v>
+      </c>
     </row>
-    <row r="89" spans="1:148">
+    <row r="89" spans="1:149">
       <c r="A89" s="1">
         <v>33512</v>
       </c>
@@ -39351,8 +39612,11 @@
       <c r="ER89">
         <v>1.407449530850149</v>
       </c>
+      <c r="ES89">
+        <v>1.43547470153497</v>
+      </c>
     </row>
-    <row r="90" spans="1:148">
+    <row r="90" spans="1:149">
       <c r="A90" s="1">
         <v>33604</v>
       </c>
@@ -39755,8 +40019,11 @@
       <c r="ER90">
         <v>1.415954016542836</v>
       </c>
+      <c r="ES90">
+        <v>1.373125963289883</v>
+      </c>
     </row>
-    <row r="91" spans="1:148">
+    <row r="91" spans="1:149">
       <c r="A91" s="1">
         <v>33695</v>
       </c>
@@ -40156,8 +40423,11 @@
       <c r="ER91">
         <v>-0.6082388719933615</v>
       </c>
+      <c r="ES91">
+        <v>-0.6219765031098669</v>
+      </c>
     </row>
-    <row r="92" spans="1:148">
+    <row r="92" spans="1:149">
       <c r="A92" s="1">
         <v>33786</v>
       </c>
@@ -40554,8 +40824,11 @@
       <c r="ER92">
         <v>-0.2642559109874992</v>
       </c>
+      <c r="ES92">
+        <v>-0.2364394993045921</v>
+      </c>
     </row>
-    <row r="93" spans="1:148">
+    <row r="93" spans="1:149">
       <c r="A93" s="1">
         <v>33878</v>
       </c>
@@ -40949,8 +41222,11 @@
       <c r="ER93">
         <v>-0.2928461860270447</v>
       </c>
+      <c r="ES93">
+        <v>-0.2788233653980243</v>
+      </c>
     </row>
-    <row r="94" spans="1:148">
+    <row r="94" spans="1:149">
       <c r="A94" s="1">
         <v>33970</v>
       </c>
@@ -41341,8 +41617,11 @@
       <c r="ER94">
         <v>-0.7832167832167863</v>
       </c>
+      <c r="ES94">
+        <v>-0.7968684468055465</v>
+      </c>
     </row>
-    <row r="95" spans="1:148">
+    <row r="95" spans="1:149">
       <c r="A95" s="1">
         <v>34060</v>
       </c>
@@ -41730,8 +42009,11 @@
       <c r="ER95">
         <v>0.04228925852833541</v>
       </c>
+      <c r="ES95">
+        <v>0.01409244644871071</v>
+      </c>
     </row>
-    <row r="96" spans="1:148">
+    <row r="96" spans="1:149">
       <c r="A96" s="1">
         <v>34151</v>
       </c>
@@ -42116,8 +42398,11 @@
       <c r="ER96">
         <v>0.5636184303226796</v>
       </c>
+      <c r="ES96">
+        <v>0.5917993518388075</v>
+      </c>
     </row>
-    <row r="97" spans="1:148">
+    <row r="97" spans="1:149">
       <c r="A97" s="1">
         <v>34243</v>
       </c>
@@ -42499,8 +42784,11 @@
       <c r="ER97">
         <v>-0.07005744710664336</v>
       </c>
+      <c r="ES97">
+        <v>-0.08404538450763731</v>
+      </c>
     </row>
-    <row r="98" spans="1:148">
+    <row r="98" spans="1:149">
       <c r="A98" s="1">
         <v>34335</v>
       </c>
@@ -42879,8 +43167,11 @@
       <c r="ER98">
         <v>1.388109927089188</v>
       </c>
+      <c r="ES98">
+        <v>1.415954016542836</v>
+      </c>
     </row>
-    <row r="99" spans="1:148">
+    <row r="99" spans="1:149">
       <c r="A99" s="1">
         <v>34425</v>
       </c>
@@ -43256,8 +43547,11 @@
       <c r="ER99">
         <v>0.5808325266214932</v>
       </c>
+      <c r="ES99">
+        <v>0.5529444290848651</v>
+      </c>
     </row>
-    <row r="100" spans="1:148">
+    <row r="100" spans="1:149">
       <c r="A100" s="1">
         <v>34516</v>
       </c>
@@ -43630,8 +43924,11 @@
       <c r="ER100">
         <v>0.5774783445620812</v>
       </c>
+      <c r="ES100">
+        <v>0.5911465493538725</v>
+      </c>
     </row>
-    <row r="101" spans="1:148">
+    <row r="101" spans="1:149">
       <c r="A101" s="1">
         <v>34608</v>
       </c>
@@ -44001,8 +44298,11 @@
       <c r="ER101">
         <v>1.120984278879006</v>
       </c>
+      <c r="ES101">
+        <v>1.107011070110704</v>
+      </c>
     </row>
-    <row r="102" spans="1:148">
+    <row r="102" spans="1:149">
       <c r="A102" s="1">
         <v>34700</v>
       </c>
@@ -44369,8 +44669,11 @@
       <c r="ER102">
         <v>-0.4055698256049712</v>
       </c>
+      <c r="ES102">
+        <v>-0.3919978372533202</v>
+      </c>
     </row>
-    <row r="103" spans="1:148">
+    <row r="103" spans="1:149">
       <c r="A103" s="1">
         <v>34790</v>
       </c>
@@ -44734,8 +45037,11 @@
       <c r="ER103">
         <v>0.8144427853943182</v>
       </c>
+      <c r="ES103">
+        <v>0.8006513773917809</v>
+      </c>
     </row>
-    <row r="104" spans="1:148">
+    <row r="104" spans="1:149">
       <c r="A104" s="1">
         <v>34881</v>
       </c>
@@ -45096,8 +45402,11 @@
       <c r="ER104">
         <v>0.1750370270634303</v>
       </c>
+      <c r="ES104">
+        <v>0.2019386106623663</v>
+      </c>
     </row>
-    <row r="105" spans="1:148">
+    <row r="105" spans="1:149">
       <c r="A105" s="1">
         <v>34973</v>
       </c>
@@ -45455,8 +45764,11 @@
       <c r="ER105">
         <v>0.04032258064516282</v>
       </c>
+      <c r="ES105">
+        <v>0.04030632809349311</v>
+      </c>
     </row>
-    <row r="106" spans="1:148">
+    <row r="106" spans="1:149">
       <c r="A106" s="1">
         <v>35065</v>
       </c>
@@ -45811,8 +46123,11 @@
       <c r="ER106">
         <v>-0.6986430202875321</v>
       </c>
+      <c r="ES106">
+        <v>-0.7117915659414276</v>
+      </c>
     </row>
-    <row r="107" spans="1:148">
+    <row r="107" spans="1:149">
       <c r="A107" s="1">
         <v>35156</v>
       </c>
@@ -46164,8 +46479,11 @@
       <c r="ER107">
         <v>1.393586794750374</v>
       </c>
+      <c r="ES107">
+        <v>1.366157175706737</v>
+      </c>
     </row>
-    <row r="108" spans="1:148">
+    <row r="108" spans="1:149">
       <c r="A108" s="1">
         <v>35247</v>
       </c>
@@ -46514,8 +46832,11 @@
       <c r="ER108">
         <v>0.346944222044309</v>
       </c>
+      <c r="ES108">
+        <v>0.3869762476648069</v>
+      </c>
     </row>
-    <row r="109" spans="1:148">
+    <row r="109" spans="1:149">
       <c r="A109" s="1">
         <v>35339</v>
       </c>
@@ -46861,8 +47182,11 @@
       <c r="ER109">
         <v>0.9042553191489264</v>
       </c>
+      <c r="ES109">
+        <v>0.9171872923035993</v>
+      </c>
     </row>
-    <row r="110" spans="1:148">
+    <row r="110" spans="1:149">
       <c r="A110" s="1">
         <v>35431</v>
       </c>
@@ -47205,8 +47529,11 @@
       <c r="ER110">
         <v>-0.4744333157617283</v>
       </c>
+      <c r="ES110">
+        <v>-0.513698630136987</v>
+      </c>
     </row>
-    <row r="111" spans="1:148">
+    <row r="111" spans="1:149">
       <c r="A111" s="1">
         <v>35521</v>
       </c>
@@ -47546,8 +47873,11 @@
       <c r="ER111">
         <v>1.125529661016961</v>
       </c>
+      <c r="ES111">
+        <v>1.11214087117702</v>
+      </c>
     </row>
-    <row r="112" spans="1:148">
+    <row r="112" spans="1:149">
       <c r="A112" s="1">
         <v>35612</v>
       </c>
@@ -47884,8 +48214,11 @@
       <c r="ER112">
         <v>0.3535419667408616</v>
       </c>
+      <c r="ES112">
+        <v>0.3928244074898483</v>
+      </c>
     </row>
-    <row r="113" spans="1:148">
+    <row r="113" spans="1:149">
       <c r="A113" s="1">
         <v>35704</v>
       </c>
@@ -48219,8 +48552,11 @@
       <c r="ER113">
         <v>0.7437369519832896</v>
       </c>
+      <c r="ES113">
+        <v>0.7434459371331592</v>
+      </c>
     </row>
-    <row r="114" spans="1:148">
+    <row r="114" spans="1:149">
       <c r="A114" s="1">
         <v>35796</v>
       </c>
@@ -48551,8 +48887,11 @@
       <c r="ER114">
         <v>0.9843284548633664</v>
       </c>
+      <c r="ES114">
+        <v>0.95805282237184</v>
+      </c>
     </row>
-    <row r="115" spans="1:148">
+    <row r="115" spans="1:149">
       <c r="A115" s="1">
         <v>35886</v>
       </c>
@@ -48880,8 +49219,11 @@
       <c r="ER115">
         <v>-0.4617160446325503</v>
       </c>
+      <c r="ES115">
+        <v>-0.4616568350859187</v>
+      </c>
     </row>
-    <row r="116" spans="1:148">
+    <row r="116" spans="1:149">
       <c r="A116" s="1">
         <v>35977</v>
       </c>
@@ -49206,8 +49548,11 @@
       <c r="ER116">
         <v>0.4638577502899104</v>
       </c>
+      <c r="ES116">
+        <v>0.4895645452202981</v>
+      </c>
     </row>
-    <row r="117" spans="1:148">
+    <row r="117" spans="1:149">
       <c r="A117" s="1">
         <v>36069</v>
       </c>
@@ -49529,8 +49874,11 @@
       <c r="ER117">
         <v>-0.02565089136846995</v>
       </c>
+      <c r="ES117">
+        <v>-0.02564102564102054</v>
+      </c>
     </row>
-    <row r="118" spans="1:148">
+    <row r="118" spans="1:149">
       <c r="A118" s="1">
         <v>36161</v>
       </c>
@@ -49849,8 +50197,11 @@
       <c r="ER118">
         <v>1.180243745991022</v>
       </c>
+      <c r="ES118">
+        <v>1.154142087714788</v>
+      </c>
     </row>
-    <row r="119" spans="1:148">
+    <row r="119" spans="1:149">
       <c r="A119" s="1">
         <v>36251</v>
       </c>
@@ -50166,8 +50517,11 @@
       <c r="ER119">
         <v>-0.1267909217700121</v>
       </c>
+      <c r="ES119">
+        <v>-0.1267748478701753</v>
+      </c>
     </row>
-    <row r="120" spans="1:148">
+    <row r="120" spans="1:149">
       <c r="A120" s="1">
         <v>36342</v>
       </c>
@@ -50480,8 +50834,11 @@
       <c r="ER120">
         <v>1.345689983496258</v>
       </c>
+      <c r="ES120">
+        <v>1.370906321401369</v>
+      </c>
     </row>
-    <row r="121" spans="1:148">
+    <row r="121" spans="1:149">
       <c r="A121" s="1">
         <v>36434</v>
       </c>
@@ -50791,8 +51148,11 @@
       <c r="ER121">
         <v>0.4760115244895346</v>
       </c>
+      <c r="ES121">
+        <v>0.4758327072376602</v>
+      </c>
     </row>
-    <row r="122" spans="1:148">
+    <row r="122" spans="1:149">
       <c r="A122" s="1">
         <v>36526</v>
       </c>
@@ -51099,8 +51459,11 @@
       <c r="ER122">
         <v>1.583343722727852</v>
       </c>
+      <c r="ES122">
+        <v>1.545363908275186</v>
+      </c>
     </row>
-    <row r="123" spans="1:148">
+    <row r="123" spans="1:149">
       <c r="A123" s="1">
         <v>36617</v>
       </c>
@@ -51404,8 +51767,11 @@
       <c r="ER123">
         <v>0.7731958762886542</v>
       </c>
+      <c r="ES123">
+        <v>0.7977417771232099</v>
+      </c>
     </row>
-    <row r="124" spans="1:148">
+    <row r="124" spans="1:149">
       <c r="A124" s="1">
         <v>36708</v>
       </c>
@@ -51706,8 +52072,11 @@
       <c r="ER124">
         <v>0.06089392278650244</v>
       </c>
+      <c r="ES124">
+        <v>0.07305491294289818</v>
+      </c>
     </row>
-    <row r="125" spans="1:148">
+    <row r="125" spans="1:149">
       <c r="A125" s="1">
         <v>36800</v>
       </c>
@@ -52005,8 +52374,11 @@
       <c r="ER125">
         <v>-0.4259980525803241</v>
       </c>
+      <c r="ES125">
+        <v>-0.4258425599221248</v>
+      </c>
     </row>
-    <row r="126" spans="1:148">
+    <row r="126" spans="1:149">
       <c r="A126" s="1">
         <v>36892</v>
       </c>
@@ -52301,8 +52673,11 @@
       <c r="ER126">
         <v>2.151326243735473</v>
       </c>
+      <c r="ES126">
+        <v>2.126099706744862</v>
+      </c>
     </row>
-    <row r="127" spans="1:148">
+    <row r="127" spans="1:149">
       <c r="A127" s="1">
         <v>36982</v>
       </c>
@@ -52594,8 +52969,11 @@
       <c r="ER127">
         <v>-0.2871843963144608</v>
       </c>
+      <c r="ES127">
+        <v>-0.2512562814070277</v>
+      </c>
     </row>
-    <row r="128" spans="1:148">
+    <row r="128" spans="1:149">
       <c r="A128" s="1">
         <v>37073</v>
       </c>
@@ -52884,8 +53262,11 @@
       <c r="ER128">
         <v>-0.01200048001920691</v>
       </c>
+      <c r="ES128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:148">
+    <row r="129" spans="1:149">
       <c r="A129" s="1">
         <v>37165</v>
       </c>
@@ -53171,8 +53552,11 @@
       <c r="ER129">
         <v>-0.300048007681229</v>
       </c>
+      <c r="ES129">
+        <v>-0.3118627803766404</v>
+      </c>
     </row>
-    <row r="130" spans="1:148">
+    <row r="130" spans="1:149">
       <c r="A130" s="1">
         <v>37257</v>
       </c>
@@ -53455,8 +53839,11 @@
       <c r="ER130">
         <v>-0.4213314072468934</v>
       </c>
+      <c r="ES130">
+        <v>-0.4692576103958616</v>
+      </c>
     </row>
-    <row r="131" spans="1:148">
+    <row r="131" spans="1:149">
       <c r="A131" s="1">
         <v>37347</v>
       </c>
@@ -53736,8 +54123,11 @@
       <c r="ER131">
         <v>0.3505802707930443</v>
       </c>
+      <c r="ES131">
+        <v>0.3868471953578426</v>
+      </c>
     </row>
-    <row r="132" spans="1:148">
+    <row r="132" spans="1:149">
       <c r="A132" s="1">
         <v>37438</v>
       </c>
@@ -54014,8 +54404,11 @@
       <c r="ER132">
         <v>0.6866642573183871</v>
       </c>
+      <c r="ES132">
+        <v>0.68641618497109</v>
+      </c>
     </row>
-    <row r="133" spans="1:148">
+    <row r="133" spans="1:149">
       <c r="A133" s="1">
         <v>37530</v>
       </c>
@@ -54289,8 +54682,11 @@
       <c r="ER133">
         <v>-0.2632208662359403</v>
       </c>
+      <c r="ES133">
+        <v>-0.2750867121157804</v>
+      </c>
     </row>
-    <row r="134" spans="1:148">
+    <row r="134" spans="1:149">
       <c r="A134" s="1">
         <v>37622</v>
       </c>
@@ -54561,8 +54957,11 @@
       <c r="ER134">
         <v>-1.343570057581579</v>
       </c>
+      <c r="ES134">
+        <v>-1.355241065003592</v>
+      </c>
     </row>
-    <row r="135" spans="1:148">
+    <row r="135" spans="1:149">
       <c r="A135" s="1">
         <v>37712</v>
       </c>
@@ -54830,8 +55229,11 @@
       <c r="ER135">
         <v>0.12159533073931</v>
       </c>
+      <c r="ES135">
+        <v>0.1458966565349599</v>
+      </c>
     </row>
-    <row r="136" spans="1:148">
+    <row r="136" spans="1:149">
       <c r="A136" s="1">
         <v>37803</v>
       </c>
@@ -55096,8 +55498,11 @@
       <c r="ER136">
         <v>0.9108574204517852</v>
       </c>
+      <c r="ES136">
+        <v>0.9105256768240864</v>
+      </c>
     </row>
-    <row r="137" spans="1:148">
+    <row r="137" spans="1:149">
       <c r="A137" s="1">
         <v>37895</v>
       </c>
@@ -55359,8 +55764,11 @@
       <c r="ER137">
         <v>0.1203514261643932</v>
       </c>
+      <c r="ES137">
+        <v>0.1203079884504263</v>
+      </c>
     </row>
-    <row r="138" spans="1:148">
+    <row r="138" spans="1:149">
       <c r="A138" s="1">
         <v>37987</v>
       </c>
@@ -55619,8 +56027,11 @@
       <c r="ER138">
         <v>-0.120206755619659</v>
       </c>
+      <c r="ES138">
+        <v>-0.1562124489305401</v>
+      </c>
     </row>
-    <row r="139" spans="1:148">
+    <row r="139" spans="1:149">
       <c r="A139" s="1">
         <v>38078</v>
       </c>
@@ -55876,8 +56287,11 @@
       <c r="ER139">
         <v>0.5656517029726789</v>
       </c>
+      <c r="ES139">
+        <v>0.589721988205554</v>
+      </c>
     </row>
-    <row r="140" spans="1:148">
+    <row r="140" spans="1:149">
       <c r="A140" s="1">
         <v>38169</v>
       </c>
@@ -56130,8 +56544,11 @@
       <c r="ER140">
         <v>-0.3231211105792197</v>
       </c>
+      <c r="ES140">
+        <v>-0.323043790380469</v>
+      </c>
     </row>
-    <row r="141" spans="1:148">
+    <row r="141" spans="1:149">
       <c r="A141" s="1">
         <v>38261</v>
       </c>
@@ -56381,8 +56798,11 @@
       <c r="ER141">
         <v>-0.0480249729859602</v>
       </c>
+      <c r="ES141">
+        <v>-0.03601008282319185</v>
+      </c>
     </row>
-    <row r="142" spans="1:148">
+    <row r="142" spans="1:149">
       <c r="A142" s="1">
         <v>38353</v>
       </c>
@@ -56629,8 +57049,11 @@
       <c r="ER142">
         <v>0.180180180180187</v>
       </c>
+      <c r="ES142">
+        <v>0.1560999039385152</v>
+      </c>
     </row>
-    <row r="143" spans="1:148">
+    <row r="143" spans="1:149">
       <c r="A143" s="1">
         <v>38443</v>
       </c>
@@ -56874,8 +57297,11 @@
       <c r="ER143">
         <v>0.5515587529975944</v>
       </c>
+      <c r="ES143">
+        <v>0.5994485073732168</v>
+      </c>
     </row>
-    <row r="144" spans="1:148">
+    <row r="144" spans="1:149">
       <c r="A144" s="1">
         <v>38534</v>
       </c>
@@ -57116,8 +57542,11 @@
       <c r="ER144">
         <v>0.8227999046029069</v>
       </c>
+      <c r="ES144">
+        <v>0.7865570253843364</v>
+      </c>
     </row>
-    <row r="145" spans="1:148">
+    <row r="145" spans="1:149">
       <c r="A145" s="1">
         <v>38626</v>
       </c>
@@ -57355,8 +57784,11 @@
       <c r="ER145">
         <v>0.3784742755765907</v>
       </c>
+      <c r="ES145">
+        <v>0.3783847700130157</v>
+      </c>
     </row>
-    <row r="146" spans="1:148">
+    <row r="146" spans="1:149">
       <c r="A146" s="1">
         <v>38718</v>
       </c>
@@ -57591,8 +58023,11 @@
       <c r="ER146">
         <v>1.11935901967714</v>
       </c>
+      <c r="ES146">
+        <v>1.119095299799744</v>
+      </c>
     </row>
-    <row r="147" spans="1:148">
+    <row r="147" spans="1:149">
       <c r="A147" s="1">
         <v>38808</v>
       </c>
@@ -57824,8 +58259,11 @@
       <c r="ER147">
         <v>1.701235143323244</v>
       </c>
+      <c r="ES147">
+        <v>1.712488350419384</v>
+      </c>
     </row>
-    <row r="148" spans="1:148">
+    <row r="148" spans="1:149">
       <c r="A148" s="1">
         <v>38899</v>
       </c>
@@ -58054,8 +58492,11 @@
       <c r="ER148">
         <v>0.7791017415215314</v>
       </c>
+      <c r="ES148">
+        <v>0.7559271561104073</v>
+      </c>
     </row>
-    <row r="149" spans="1:148">
+    <row r="149" spans="1:149">
       <c r="A149" s="1">
         <v>38991</v>
       </c>
@@ -58281,8 +58722,11 @@
       <c r="ER149">
         <v>1.455206912232834</v>
       </c>
+      <c r="ES149">
+        <v>1.466409003069235</v>
+      </c>
     </row>
-    <row r="150" spans="1:148">
+    <row r="150" spans="1:149">
       <c r="A150" s="1">
         <v>39083</v>
       </c>
@@ -58505,8 +58949,11 @@
       <c r="ER150">
         <v>0.1344688480502068</v>
       </c>
+      <c r="ES150">
+        <v>0.1344387183508742</v>
+      </c>
     </row>
-    <row r="151" spans="1:148">
+    <row r="151" spans="1:149">
       <c r="A151" s="1">
         <v>39173</v>
       </c>
@@ -58726,8 +59173,11 @@
       <c r="ER151">
         <v>0.6602506714413646</v>
       </c>
+      <c r="ES151">
+        <v>0.6601029313045462</v>
+      </c>
     </row>
-    <row r="152" spans="1:148">
+    <row r="152" spans="1:149">
       <c r="A152" s="1">
         <v>39264</v>
       </c>
@@ -58944,8 +59394,11 @@
       <c r="ER152">
         <v>0.5002779321845502</v>
       </c>
+      <c r="ES152">
+        <v>0.5112815382905501</v>
+      </c>
     </row>
-    <row r="153" spans="1:148">
+    <row r="153" spans="1:149">
       <c r="A153" s="1">
         <v>39356</v>
       </c>
@@ -59159,8 +59612,11 @@
       <c r="ER153">
         <v>0.7411504424778622</v>
       </c>
+      <c r="ES153">
+        <v>0.7409045670684369</v>
+      </c>
     </row>
-    <row r="154" spans="1:148">
+    <row r="154" spans="1:149">
       <c r="A154" s="1">
         <v>39448</v>
       </c>
@@ -59371,8 +59827,11 @@
       <c r="ER154">
         <v>0.6039310420555742</v>
       </c>
+      <c r="ES154">
+        <v>0.5817782656421527</v>
+      </c>
     </row>
-    <row r="155" spans="1:148">
+    <row r="155" spans="1:149">
       <c r="A155" s="1">
         <v>39539</v>
       </c>
@@ -59580,8 +60039,11 @@
       <c r="ER155">
         <v>-0.3601833660772738</v>
       </c>
+      <c r="ES155">
+        <v>-0.3601440576230474</v>
+      </c>
     </row>
-    <row r="156" spans="1:148">
+    <row r="156" spans="1:149">
       <c r="A156" s="1">
         <v>39630</v>
       </c>
@@ -59786,8 +60248,11 @@
       <c r="ER156">
         <v>-0.5477051155657793</v>
       </c>
+      <c r="ES156">
+        <v>-0.547645125958379</v>
+      </c>
     </row>
-    <row r="157" spans="1:148">
+    <row r="157" spans="1:149">
       <c r="A157" s="1">
         <v>39722</v>
       </c>
@@ -59989,8 +60454,11 @@
       <c r="ER157">
         <v>-1.542020046260608</v>
       </c>
+      <c r="ES157">
+        <v>-1.552863436123344</v>
+      </c>
     </row>
-    <row r="158" spans="1:148">
+    <row r="158" spans="1:149">
       <c r="A158" s="1">
         <v>39814</v>
       </c>
@@ -60189,8 +60657,11 @@
       <c r="ER158">
         <v>-4.698512137823026</v>
       </c>
+      <c r="ES158">
+        <v>-4.687325204161537</v>
+      </c>
     </row>
-    <row r="159" spans="1:148">
+    <row r="159" spans="1:149">
       <c r="A159" s="1">
         <v>39904</v>
       </c>
@@ -60386,8 +60857,11 @@
       <c r="ER159">
         <v>0.2699847399929616</v>
       </c>
+      <c r="ES159">
+        <v>0.2464788732394293</v>
+      </c>
     </row>
-    <row r="160" spans="1:148">
+    <row r="160" spans="1:149">
       <c r="A160" s="1">
         <v>39995</v>
       </c>
@@ -60580,8 +61054,11 @@
       <c r="ER160">
         <v>0.5970498712245436</v>
       </c>
+      <c r="ES160">
+        <v>0.6205362369745945</v>
+      </c>
     </row>
-    <row r="161" spans="1:148">
+    <row r="161" spans="1:149">
       <c r="A161" s="1">
         <v>40087</v>
       </c>
@@ -60771,8 +61248,11 @@
       <c r="ER161">
         <v>0.7797044105667258</v>
       </c>
+      <c r="ES161">
+        <v>0.7679776588317392</v>
+      </c>
     </row>
-    <row r="162" spans="1:148">
+    <row r="162" spans="1:149">
       <c r="A162" s="1">
         <v>40179</v>
       </c>
@@ -60959,8 +61439,11 @@
       <c r="ER162">
         <v>0.7159353348729844</v>
       </c>
+      <c r="ES162">
+        <v>0.7274826789838449</v>
+      </c>
     </row>
-    <row r="163" spans="1:148">
+    <row r="163" spans="1:149">
       <c r="A163" s="1">
         <v>40269</v>
       </c>
@@ -61144,8 +61627,11 @@
       <c r="ER163">
         <v>2.178399449667514</v>
       </c>
+      <c r="ES163">
+        <v>2.166685773243151</v>
+      </c>
     </row>
-    <row r="164" spans="1:148">
+    <row r="164" spans="1:149">
       <c r="A164" s="1">
         <v>40360</v>
       </c>
@@ -61326,8 +61812,11 @@
       <c r="ER164">
         <v>0.9649910233393171</v>
       </c>
+      <c r="ES164">
+        <v>0.9649910233393171</v>
+      </c>
     </row>
-    <row r="165" spans="1:148">
+    <row r="165" spans="1:149">
       <c r="A165" s="1">
         <v>40452</v>
       </c>
@@ -61505,8 +61994,11 @@
       <c r="ER165">
         <v>0.6557012669481986</v>
       </c>
+      <c r="ES165">
+        <v>0.6557012669481986</v>
+      </c>
     </row>
-    <row r="166" spans="1:148">
+    <row r="166" spans="1:149">
       <c r="A166" s="1">
         <v>40544</v>
       </c>
@@ -61681,8 +62173,11 @@
       <c r="ER166">
         <v>1.810754112840897</v>
       </c>
+      <c r="ES166">
+        <v>1.810754112840897</v>
+      </c>
     </row>
-    <row r="167" spans="1:148">
+    <row r="167" spans="1:149">
       <c r="A167" s="1">
         <v>40634</v>
       </c>
@@ -61854,8 +62349,11 @@
       <c r="ER167">
         <v>0.2711202689513068</v>
       </c>
+      <c r="ES167">
+        <v>0.2711202689513068</v>
+      </c>
     </row>
-    <row r="168" spans="1:148">
+    <row r="168" spans="1:149">
       <c r="A168" s="1">
         <v>40725</v>
       </c>
@@ -62024,8 +62522,11 @@
       <c r="ER168">
         <v>0.5407743889249406</v>
       </c>
+      <c r="ES168">
+        <v>0.5407743889249406</v>
+      </c>
     </row>
-    <row r="169" spans="1:148">
+    <row r="169" spans="1:149">
       <c r="A169" s="1">
         <v>40817</v>
       </c>
@@ -62191,8 +62692,11 @@
       <c r="ER169">
         <v>0</v>
       </c>
+      <c r="ES169">
+        <v>-0.01075731497417266</v>
+      </c>
     </row>
-    <row r="170" spans="1:148">
+    <row r="170" spans="1:149">
       <c r="A170" s="1">
         <v>40909</v>
       </c>
@@ -62355,8 +62859,11 @@
       <c r="ER170">
         <v>0.2151462994836519</v>
       </c>
+      <c r="ES170">
+        <v>0.2151694459386798</v>
+      </c>
     </row>
-    <row r="171" spans="1:148">
+    <row r="171" spans="1:149">
       <c r="A171" s="1">
         <v>41000</v>
       </c>
@@ -62516,8 +63023,11 @@
       <c r="ER171">
         <v>0.09660798626020117</v>
       </c>
+      <c r="ES171">
+        <v>0.1073537305421302</v>
+      </c>
     </row>
-    <row r="172" spans="1:148">
+    <row r="172" spans="1:149">
       <c r="A172" s="1">
         <v>41091</v>
       </c>
@@ -62674,8 +63184,11 @@
       <c r="ER172">
         <v>0.2144772117962497</v>
       </c>
+      <c r="ES172">
+        <v>0.2037533512064319</v>
+      </c>
     </row>
-    <row r="173" spans="1:148">
+    <row r="173" spans="1:149">
       <c r="A173" s="1">
         <v>41183</v>
       </c>
@@ -62829,8 +63342,11 @@
       <c r="ER173">
         <v>-0.3317281968967387</v>
       </c>
+      <c r="ES173">
+        <v>-0.2996575342465766</v>
+      </c>
     </row>
-    <row r="174" spans="1:148">
+    <row r="174" spans="1:149">
       <c r="A174" s="1">
         <v>41275</v>
       </c>
@@ -62981,8 +63497,11 @@
       <c r="ER174">
         <v>-0.5582993343354048</v>
       </c>
+      <c r="ES174">
+        <v>-0.5581794761700257</v>
+      </c>
     </row>
-    <row r="175" spans="1:148">
+    <row r="175" spans="1:149">
       <c r="A175" s="1">
         <v>41365</v>
       </c>
@@ -63130,8 +63649,11 @@
       <c r="ER175">
         <v>1.209242064348942</v>
       </c>
+      <c r="ES175">
+        <v>1.165803108808288</v>
+      </c>
     </row>
-    <row r="176" spans="1:148">
+    <row r="176" spans="1:149">
       <c r="A176" s="1">
         <v>41456</v>
       </c>
@@ -63276,8 +63798,11 @@
       <c r="ER176">
         <v>0.5013868145935555</v>
       </c>
+      <c r="ES176">
+        <v>0.5121638924455868</v>
+      </c>
     </row>
-    <row r="177" spans="1:148">
+    <row r="177" spans="1:149">
       <c r="A177" s="1">
         <v>41548</v>
       </c>
@@ -63419,8 +63944,11 @@
       <c r="ER177">
         <v>0.1167604288292107</v>
       </c>
+      <c r="ES177">
+        <v>0.1486199575371556</v>
+      </c>
     </row>
-    <row r="178" spans="1:148">
+    <row r="178" spans="1:149">
       <c r="A178" s="1">
         <v>41640</v>
       </c>
@@ -63559,8 +64087,11 @@
       <c r="ER178">
         <v>1.049618320610697</v>
       </c>
+      <c r="ES178">
+        <v>1.049395802416785</v>
+      </c>
     </row>
-    <row r="179" spans="1:148">
+    <row r="179" spans="1:149">
       <c r="A179" s="1">
         <v>41730</v>
       </c>
@@ -63696,8 +64227,11 @@
       <c r="ER179">
         <v>0.0314762354422423</v>
       </c>
+      <c r="ES179">
+        <v>-0.02097975453686774</v>
+      </c>
     </row>
-    <row r="180" spans="1:148">
+    <row r="180" spans="1:149">
       <c r="A180" s="1">
         <v>41821</v>
       </c>
@@ -63830,8 +64364,11 @@
       <c r="ER180">
         <v>0.5139500734214337</v>
       </c>
+      <c r="ES180">
+        <v>0.5560801594795941</v>
+      </c>
     </row>
-    <row r="181" spans="1:148">
+    <row r="181" spans="1:149">
       <c r="A181" s="1">
         <v>41913</v>
       </c>
@@ -63961,8 +64498,11 @@
       <c r="ER181">
         <v>0.7408953354899385</v>
       </c>
+      <c r="ES181">
+        <v>0.7616861435726103</v>
+      </c>
     </row>
-    <row r="182" spans="1:148">
+    <row r="182" spans="1:149">
       <c r="A182" s="1">
         <v>42005</v>
       </c>
@@ -64089,8 +64629,11 @@
       <c r="ER182">
         <v>-0.2278848145846417</v>
       </c>
+      <c r="ES182">
+        <v>-0.2174588381484869</v>
+      </c>
     </row>
-    <row r="183" spans="1:148">
+    <row r="183" spans="1:149">
       <c r="A183" s="1">
         <v>42095</v>
       </c>
@@ -64214,8 +64757,11 @@
       <c r="ER183">
         <v>0.6125415282392063</v>
       </c>
+      <c r="ES183">
+        <v>0.5188875051888751</v>
+      </c>
     </row>
-    <row r="184" spans="1:148">
+    <row r="184" spans="1:149">
       <c r="A184" s="1">
         <v>42186</v>
       </c>
@@ -64336,8 +64882,11 @@
       <c r="ER184">
         <v>0.4643483644618748</v>
       </c>
+      <c r="ES184">
+        <v>0.5368573198430684</v>
+      </c>
     </row>
-    <row r="185" spans="1:148">
+    <row r="185" spans="1:149">
       <c r="A185" s="1">
         <v>42278</v>
       </c>
@@ -64455,8 +65004,11 @@
       <c r="ER185">
         <v>0.4622021364009889</v>
       </c>
+      <c r="ES185">
+        <v>0.5134524543027316</v>
+      </c>
     </row>
-    <row r="186" spans="1:148">
+    <row r="186" spans="1:149">
       <c r="A186" s="1">
         <v>42370</v>
       </c>
@@ -64571,8 +65123,11 @@
       <c r="ER186">
         <v>0.9712708312033562</v>
       </c>
+      <c r="ES186">
+        <v>0.8786268900694724</v>
+      </c>
     </row>
-    <row r="187" spans="1:148">
+    <row r="187" spans="1:149">
       <c r="A187" s="1">
         <v>42461</v>
       </c>
@@ -64684,8 +65239,11 @@
       <c r="ER187">
         <v>0.324017820980147</v>
       </c>
+      <c r="ES187">
+        <v>0.2228073728985202</v>
+      </c>
     </row>
-    <row r="188" spans="1:148">
+    <row r="188" spans="1:149">
       <c r="A188" s="1">
         <v>42552</v>
       </c>
@@ -64794,8 +65352,11 @@
       <c r="ER188">
         <v>0.3027856277755321</v>
       </c>
+      <c r="ES188">
+        <v>0.3536782538399439</v>
+      </c>
     </row>
-    <row r="189" spans="1:148">
+    <row r="189" spans="1:149">
       <c r="A189" s="1">
         <v>42644</v>
       </c>
@@ -64901,8 +65462,11 @@
       <c r="ER189">
         <v>0.4024954719259466</v>
       </c>
+      <c r="ES189">
+        <v>0.4631960527640658</v>
+      </c>
     </row>
-    <row r="190" spans="1:148">
+    <row r="190" spans="1:149">
       <c r="A190" s="1">
         <v>42736</v>
       </c>
@@ -65005,8 +65569,11 @@
       <c r="ER190">
         <v>1.192623772299056</v>
       </c>
+      <c r="ES190">
+        <v>1.292973839831619</v>
+      </c>
     </row>
-    <row r="191" spans="1:148">
+    <row r="191" spans="1:149">
       <c r="A191" s="1">
         <v>42826</v>
       </c>
@@ -65106,8 +65673,11 @@
       <c r="ER191">
         <v>0.8715460037634897</v>
       </c>
+      <c r="ES191">
+        <v>0.7124480506629713</v>
+      </c>
     </row>
-    <row r="192" spans="1:148">
+    <row r="192" spans="1:149">
       <c r="A192" s="1">
         <v>42917</v>
       </c>
@@ -65204,8 +65774,11 @@
       <c r="ER192">
         <v>0.6971035837015297</v>
       </c>
+      <c r="ES192">
+        <v>0.7958341520927513</v>
+      </c>
     </row>
-    <row r="193" spans="1:148">
+    <row r="193" spans="1:149">
       <c r="A193" s="1">
         <v>43009</v>
       </c>
@@ -65299,8 +65872,11 @@
       <c r="ER193">
         <v>0.9555382215288651</v>
       </c>
+      <c r="ES193">
+        <v>1.01374402963251</v>
+      </c>
     </row>
-    <row r="194" spans="1:148">
+    <row r="194" spans="1:149">
       <c r="A194" s="1">
         <v>43101</v>
       </c>
@@ -65391,8 +65967,11 @@
       <c r="ER194">
         <v>-0.4829051574270813</v>
       </c>
+      <c r="ES194">
+        <v>-0.5500337740036604</v>
+      </c>
     </row>
-    <row r="195" spans="1:148">
+    <row r="195" spans="1:149">
       <c r="A195" s="1">
         <v>43191</v>
       </c>
@@ -65480,8 +66059,11 @@
       <c r="ER195">
         <v>0.7278726708074534</v>
       </c>
+      <c r="ES195">
+        <v>0.7859499320784032</v>
+      </c>
     </row>
-    <row r="196" spans="1:148">
+    <row r="196" spans="1:149">
       <c r="A196" s="1">
         <v>43282</v>
       </c>
@@ -65566,8 +66148,11 @@
       <c r="ER196">
         <v>-0.7226129684940745</v>
       </c>
+      <c r="ES196">
+        <v>-0.654664484451725</v>
+      </c>
     </row>
-    <row r="197" spans="1:148">
+    <row r="197" spans="1:149">
       <c r="A197" s="1">
         <v>43374</v>
       </c>
@@ -65649,8 +66234,11 @@
       <c r="ER197">
         <v>0.6308229813664513</v>
       </c>
+      <c r="ES197">
+        <v>0.4457796298090977</v>
+      </c>
     </row>
-    <row r="198" spans="1:148">
+    <row r="198" spans="1:149">
       <c r="A198" s="1">
         <v>43466</v>
       </c>
@@ -65729,8 +66317,11 @@
       <c r="ER198">
         <v>0.559359629665347</v>
       </c>
+      <c r="ES198">
+        <v>0.6560540279787676</v>
+      </c>
     </row>
-    <row r="199" spans="1:148">
+    <row r="199" spans="1:149">
       <c r="A199" s="1">
         <v>43556</v>
       </c>
@@ -65806,8 +66397,11 @@
       <c r="ER199">
         <v>0.06713340366357283</v>
       </c>
+      <c r="ES199">
+        <v>0.05750982459503716</v>
+      </c>
     </row>
-    <row r="200" spans="1:148">
+    <row r="200" spans="1:149">
       <c r="A200" s="1">
         <v>43647</v>
       </c>
@@ -65880,8 +66474,11 @@
       <c r="ER200">
         <v>0.2683534598428226</v>
       </c>
+      <c r="ES200">
+        <v>0.3831784653702516</v>
+      </c>
     </row>
-    <row r="201" spans="1:148">
+    <row r="201" spans="1:149">
       <c r="A201" s="1">
         <v>43739</v>
       </c>
@@ -65951,8 +66548,11 @@
       <c r="ER201">
         <v>-0.03823360734085859</v>
       </c>
+      <c r="ES201">
+        <v>-0.3340013360053521</v>
+      </c>
     </row>
-    <row r="202" spans="1:148">
+    <row r="202" spans="1:149">
       <c r="A202" s="1">
         <v>43831</v>
       </c>
@@ -66019,8 +66619,11 @@
       <c r="ER202">
         <v>-2.19927328361063</v>
       </c>
+      <c r="ES202">
+        <v>-2.029873611643053</v>
+      </c>
     </row>
-    <row r="203" spans="1:148">
+    <row r="203" spans="1:149">
       <c r="A203" s="1">
         <v>43922</v>
       </c>
@@ -66084,8 +66687,11 @@
       <c r="ER203">
         <v>-8.897145091904569</v>
       </c>
+      <c r="ES203">
+        <v>-8.874120406567631</v>
+      </c>
     </row>
-    <row r="204" spans="1:148">
+    <row r="204" spans="1:149">
       <c r="A204" s="1">
         <v>44013</v>
       </c>
@@ -66146,8 +66752,11 @@
       <c r="ER204">
         <v>8.703584460184588</v>
       </c>
+      <c r="ES204">
+        <v>8.67653367653368</v>
+      </c>
     </row>
-    <row r="205" spans="1:148">
+    <row r="205" spans="1:149">
       <c r="A205" s="1">
         <v>44105</v>
       </c>
@@ -66205,8 +66814,11 @@
       <c r="ER205">
         <v>1.13535393424819</v>
       </c>
+      <c r="ES205">
+        <v>0.9671370768775328</v>
+      </c>
     </row>
-    <row r="206" spans="1:148">
+    <row r="206" spans="1:149">
       <c r="A206" s="1">
         <v>44197</v>
       </c>
@@ -66261,8 +66873,11 @@
       <c r="ER206">
         <v>-1.112846544318626</v>
       </c>
+      <c r="ES206">
+        <v>-0.6157755840093788</v>
+      </c>
     </row>
-    <row r="207" spans="1:148">
+    <row r="207" spans="1:149">
       <c r="A207" s="1">
         <v>44287</v>
       </c>
@@ -66314,8 +66929,11 @@
       <c r="ER207">
         <v>2.546890424481736</v>
       </c>
+      <c r="ES207">
+        <v>2.350511408339877</v>
+      </c>
     </row>
-    <row r="208" spans="1:148">
+    <row r="208" spans="1:149">
       <c r="A208" s="1">
         <v>44378</v>
       </c>
@@ -66364,8 +66982,11 @@
       <c r="ER208">
         <v>0.03850596842511191</v>
       </c>
+      <c r="ES208">
+        <v>0.08648025367541406</v>
+      </c>
     </row>
-    <row r="209" spans="1:148">
+    <row r="209" spans="1:149">
       <c r="A209" s="1">
         <v>44470</v>
       </c>
@@ -66411,8 +67032,11 @@
       <c r="ER209">
         <v>0.6158583525789074</v>
       </c>
+      <c r="ES209">
+        <v>0.5376344086021527</v>
+      </c>
     </row>
-    <row r="210" spans="1:148">
+    <row r="210" spans="1:149">
       <c r="A210" s="1">
         <v>44562</v>
       </c>
@@ -66455,8 +67079,11 @@
       <c r="ER210">
         <v>0.1817138485080315</v>
       </c>
+      <c r="ES210">
+        <v>0.6779984721161268</v>
+      </c>
     </row>
-    <row r="211" spans="1:148">
+    <row r="211" spans="1:149">
       <c r="A211" s="1">
         <v>44652</v>
       </c>
@@ -66496,8 +67123,11 @@
       <c r="ER211">
         <v>-0.01909307875894608</v>
       </c>
+      <c r="ES211">
+        <v>0.1517594612539093</v>
+      </c>
     </row>
-    <row r="212" spans="1:148">
+    <row r="212" spans="1:149">
       <c r="A212" s="1">
         <v>44743</v>
       </c>
@@ -66534,8 +67164,11 @@
       <c r="ER212">
         <v>0.5919984722619979</v>
       </c>
+      <c r="ES212">
+        <v>0.2935884079931833</v>
+      </c>
     </row>
-    <row r="213" spans="1:148">
+    <row r="213" spans="1:149">
       <c r="A213" s="1">
         <v>44835</v>
       </c>
@@ -66569,8 +67202,11 @@
       <c r="ER213">
         <v>-0.5125771238727974</v>
       </c>
+      <c r="ES213">
+        <v>-0.3493862134088806</v>
+      </c>
     </row>
-    <row r="214" spans="1:148">
+    <row r="214" spans="1:149">
       <c r="A214" s="1">
         <v>44927</v>
       </c>
@@ -66601,8 +67237,11 @@
       <c r="ER214">
         <v>0.1431161148745267</v>
       </c>
+      <c r="ES214">
+        <v>-0.473798919738463</v>
+      </c>
     </row>
-    <row r="215" spans="1:148">
+    <row r="215" spans="1:149">
       <c r="A215" s="1">
         <v>45017</v>
       </c>
@@ -66630,8 +67269,11 @@
       <c r="ER215">
         <v>-0.1524390243902407</v>
       </c>
+      <c r="ES215">
+        <v>-0.07616871370084576</v>
+      </c>
     </row>
-    <row r="216" spans="1:148">
+    <row r="216" spans="1:149">
       <c r="A216" s="1">
         <v>45108</v>
       </c>
@@ -66656,8 +67298,11 @@
       <c r="ER216">
         <v>0.1908396946564913</v>
       </c>
+      <c r="ES216">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:148">
+    <row r="217" spans="1:149">
       <c r="A217" s="1">
         <v>45200</v>
       </c>
@@ -66679,8 +67324,11 @@
       <c r="ER217">
         <v>-0.371428571428572</v>
       </c>
+      <c r="ES217">
+        <v>-0.2763220581229216</v>
+      </c>
     </row>
-    <row r="218" spans="1:148">
+    <row r="218" spans="1:149">
       <c r="A218" s="1">
         <v>45292</v>
       </c>
@@ -66699,8 +67347,11 @@
       <c r="ER218">
         <v>0.2389828888251601</v>
       </c>
+      <c r="ES218">
+        <v>-0.1051022358111976</v>
+      </c>
     </row>
-    <row r="219" spans="1:148">
+    <row r="219" spans="1:149">
       <c r="A219" s="1">
         <v>45383</v>
       </c>
@@ -66716,8 +67367,11 @@
       <c r="ER219">
         <v>-0.295632271600231</v>
       </c>
+      <c r="ES219">
+        <v>-0.2582496413199388</v>
+      </c>
     </row>
-    <row r="220" spans="1:148">
+    <row r="220" spans="1:149">
       <c r="A220" s="1">
         <v>45474</v>
       </c>
@@ -66730,8 +67384,11 @@
       <c r="ER220">
         <v>0.1052128168340501</v>
       </c>
+      <c r="ES220">
+        <v>0.01917913310317992</v>
+      </c>
     </row>
-    <row r="221" spans="1:148">
+    <row r="221" spans="1:149">
       <c r="A221" s="1">
         <v>45566</v>
       </c>
@@ -66741,13 +67398,27 @@
       <c r="ER221">
         <v>-0.2006497229122814</v>
       </c>
+      <c r="ES221">
+        <v>0.1821668264621263</v>
+      </c>
     </row>
-    <row r="222" spans="1:148">
+    <row r="222" spans="1:149">
       <c r="A222" s="1">
         <v>45658</v>
       </c>
       <c r="ER222">
         <v>0.4116802297750048</v>
+      </c>
+      <c r="ES222">
+        <v>0.3062494018566441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:149">
+      <c r="A223" s="1">
+        <v>45748</v>
+      </c>
+      <c r="ES223">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>
